--- a/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Gabric.xlsx
+++ b/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Gabric.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josip\Documents\5AHWII\SWP\CCC_Projekt\Ferienspass\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josip\Documents\5AHWII\SWP\CCC_Projekt\Ferienspass\Taetigkeitsprotokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3345857-6B7C-483C-AEF1-A65BF30FBAFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51C1A23-197E-42D4-B725-C573AB92DD12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Datum</t>
   </si>
@@ -76,6 +76,21 @@
   </si>
   <si>
     <t>Organisation(Github, Protokolle, Taskboard etc)</t>
+  </si>
+  <si>
+    <t>Di</t>
+  </si>
+  <si>
+    <t>12.11.2019</t>
+  </si>
+  <si>
+    <t>19.11.2019</t>
+  </si>
+  <si>
+    <t>Planung des nächsten Sprints(5 Storys, inkl. Tasks und genauer Taskbeschreibung für jeden Mitarbeiter und Schätzung durch Storypoints und Stunden(5 Points entsprechen 1er Stunde))</t>
+  </si>
+  <si>
+    <t>Besprechung(siehe Besprechungsprotokoll) mit Gemeinde Mondpichl</t>
   </si>
 </sst>
 </file>
@@ -273,6 +288,30 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -284,30 +323,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -708,7 +723,7 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -721,12 +736,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="8"/>
@@ -763,35 +778,35 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="35" t="s">
+      <c r="B5" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="39" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="35" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="8"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -823,32 +838,52 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="27"/>
+      <c r="A8" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="25">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>19</v>
+      </c>
       <c r="F8" s="26">
         <f t="shared" ref="F8:F37" si="0">D8-C8</f>
-        <v>0</v>
+        <v>5.555555555555558E-2</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-    </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A9" s="23"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="27"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="25">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>18</v>
+      </c>
       <c r="F9" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22569444444444436</v>
       </c>
       <c r="G9" s="11"/>
       <c r="J9" s="3"/>
@@ -1193,109 +1228,109 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
       <c r="F38" s="22">
         <f>SUM(F7:F37)</f>
-        <v>6.9444444444444531E-2</v>
+        <v>0.35069444444444448</v>
       </c>
       <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
       <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
       <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
       <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
       <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
       <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
@@ -1318,6 +1353,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A45:F45"/>
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="C5:D5"/>
@@ -1327,15 +1371,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A45:F45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Gabric.xlsx
+++ b/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Gabric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josip\Documents\5AHWII\SWP\CCC_Projekt\Ferienspass\Taetigkeitsprotokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51C1A23-197E-42D4-B725-C573AB92DD12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E2E590-78A4-45C0-AFF9-C57DFEB84F13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Datum</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>Besprechung(siehe Besprechungsprotokoll) mit Gemeinde Mondpichl</t>
+  </si>
+  <si>
+    <t>26.11.2019</t>
+  </si>
+  <si>
+    <t>Mondpichl-ERM,Relationenmodell erstellt, Tabellen in SQL übertragen</t>
   </si>
 </sst>
 </file>
@@ -723,7 +729,7 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -889,14 +895,24 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="27"/>
+      <c r="A10" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="25">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>21</v>
+      </c>
       <c r="F10" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22569444444444436</v>
       </c>
       <c r="G10" s="11"/>
       <c r="J10" s="3"/>
@@ -1237,7 +1253,7 @@
       <c r="E38" s="29"/>
       <c r="F38" s="22">
         <f>SUM(F7:F37)</f>
-        <v>0.35069444444444448</v>
+        <v>0.57638888888888884</v>
       </c>
       <c r="G38" s="8"/>
     </row>

--- a/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Gabric.xlsx
+++ b/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Gabric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josip\Documents\5AHWII\SWP\CCC_Projekt\Ferienspass\Taetigkeitsprotokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E2E590-78A4-45C0-AFF9-C57DFEB84F13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4D2863-36CC-4BC9-ACCB-2D01C2DE81BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>Datum</t>
   </si>
@@ -96,7 +96,7 @@
     <t>26.11.2019</t>
   </si>
   <si>
-    <t>Mondpichl-ERM,Relationenmodell erstellt, Tabellen in SQL übertragen</t>
+    <t>Mondpichl-ERM,Relationenmodell erstellt, Tabellen in SQL übertragen, Burndownchart optimiert, Flipchart optimiert</t>
   </si>
 </sst>
 </file>
@@ -294,6 +294,18 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -317,18 +329,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -742,12 +742,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="8"/>
@@ -784,35 +784,35 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="35" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="35" t="s">
+      <c r="F5" s="39" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="21" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="8"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -864,12 +864,12 @@
         <v>5.555555555555558E-2</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A9" s="23" t="s">
@@ -894,7 +894,7 @@
       <c r="G9" s="11"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.45">
       <c r="A10" s="23" t="s">
         <v>15</v>
       </c>
@@ -918,7 +918,9 @@
       <c r="J10" s="3"/>
     </row>
     <row r="11" spans="1:13" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A11" s="23"/>
+      <c r="A11" s="23" t="s">
+        <v>15</v>
+      </c>
       <c r="B11" s="20"/>
       <c r="C11" s="25"/>
       <c r="D11" s="25"/>
@@ -1244,13 +1246,13 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="29" t="s">
+      <c r="A38" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
       <c r="F38" s="22">
         <f>SUM(F7:F37)</f>
         <v>0.57638888888888884</v>
@@ -1258,95 +1260,95 @@
       <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A40" s="30" t="s">
+      <c r="A40" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="30"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A41" s="39"/>
-      <c r="B41" s="39"/>
-      <c r="C41" s="39"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
+      <c r="A41" s="31"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A42" s="40"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A43" s="37"/>
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="37"/>
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
       <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A45" s="37"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
       <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A46" s="37"/>
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
+      <c r="A46" s="29"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
       <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A47" s="37"/>
-      <c r="B47" s="37"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="37"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
       <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A48" s="37"/>
-      <c r="B48" s="37"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
       <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
@@ -1369,6 +1371,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="A46:F46"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="A48:F48"/>
@@ -1378,15 +1389,6 @@
     <mergeCell ref="A43:F43"/>
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Gabric.xlsx
+++ b/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Gabric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josip\Documents\5AHWII\SWP\CCC_Projekt\Ferienspass\Taetigkeitsprotokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4D2863-36CC-4BC9-ACCB-2D01C2DE81BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FB690C-E609-4882-A243-94110119DA97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Datum</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Mondpichl-ERM,Relationenmodell erstellt, Tabellen in SQL übertragen, Burndownchart optimiert, Flipchart optimiert</t>
+  </si>
+  <si>
+    <t>03.12.2019</t>
+  </si>
+  <si>
+    <t>Check-Klasse programmiert, Verification von einigen Methoden und programmierten Seiten, Flipchart und Burndownchart aktualisiert, Datenbank optimiert, Programmierbeihilfe</t>
   </si>
 </sst>
 </file>
@@ -238,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -267,9 +273,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -294,6 +297,30 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -305,30 +332,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -729,7 +732,7 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -742,12 +745,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="8"/>
@@ -784,57 +787,57 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="35" t="s">
+      <c r="B5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="39" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="39" t="s">
+      <c r="F5" s="34" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="21" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
       <c r="G6" s="8"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A7" s="23">
+      <c r="A7" s="22">
         <v>43775</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="24">
         <v>0.40277777777777773</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="24">
         <v>0.47222222222222227</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="25">
         <f>D7-C7</f>
         <v>6.9444444444444531E-2</v>
       </c>
@@ -844,50 +847,50 @@
       <c r="J7" s="3"/>
     </row>
     <row r="8" spans="1:13" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="24">
         <v>0.40277777777777773</v>
       </c>
-      <c r="D8" s="25">
+      <c r="D8" s="24">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="26">
+      <c r="F8" s="25">
         <f t="shared" ref="F8:F37" si="0">D8-C8</f>
         <v>5.555555555555558E-2</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="24">
         <v>0.32291666666666669</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="24">
         <v>0.54861111111111105</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="26">
+      <c r="F9" s="25">
         <f t="shared" si="0"/>
         <v>0.22569444444444436</v>
       </c>
@@ -895,460 +898,468 @@
       <c r="J9" s="3"/>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.45">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="24">
         <v>0.32291666666666669</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="24">
         <v>0.54861111111111105</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="25">
         <f t="shared" si="0"/>
         <v>0.22569444444444436</v>
       </c>
       <c r="G10" s="11"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.45">
+      <c r="A11" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="26">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B11" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="24">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D11" s="24">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E11" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="25">
+        <f t="shared" si="0"/>
+        <v>0.22569444444444436</v>
       </c>
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:13" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="26">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A13" s="23"/>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="26">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A14" s="23"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="26">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="26">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A16" s="23"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="26">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A17" s="27"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="26">
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A18" s="23"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="26">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A19" s="23"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="26">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A20" s="23"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="26">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A21" s="27"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="26">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A22" s="27"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="26">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A23" s="27"/>
-      <c r="B23" s="27"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="26">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A24" s="27"/>
-      <c r="B24" s="27"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="26">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A25" s="27"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="26">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G25" s="11"/>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="26">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="26">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A28" s="27"/>
-      <c r="B28" s="27"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="26">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="26">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G29" s="11"/>
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A30" s="27"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="26">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G30" s="11"/>
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="26">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A32" s="27"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="26">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G32" s="11"/>
     </row>
     <row r="33" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A33" s="27"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="26">
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G33" s="11"/>
     </row>
     <row r="34" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27" t="s">
+      <c r="A34" s="26"/>
+      <c r="B34" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="26">
+      <c r="C34" s="24"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G34" s="11"/>
     </row>
     <row r="35" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A35" s="27"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="26">
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G35" s="11"/>
     </row>
     <row r="36" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A36" s="27"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="26">
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G36" s="11"/>
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A37" s="27"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="26">
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="22">
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="21">
         <f>SUM(F7:F37)</f>
-        <v>0.57638888888888884</v>
+        <v>0.80208333333333326</v>
       </c>
       <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A39" s="30"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A40" s="34" t="s">
+      <c r="A40" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A42" s="32"/>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
       <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
       <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A46" s="29"/>
-      <c r="B46" s="29"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
       <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A47" s="29"/>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
       <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A48" s="29"/>
-      <c r="B48" s="29"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
       <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
@@ -1371,6 +1382,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A45:F45"/>
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="C5:D5"/>
@@ -1380,15 +1400,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A45:F45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Gabric.xlsx
+++ b/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Gabric.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josip\Documents\5AHWII\SWP\CCC_Projekt\Ferienspass\Taetigkeitsprotokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31FB690C-E609-4882-A243-94110119DA97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA6341E-5934-48EE-A027-B2BFA8190C93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Datum</t>
   </si>
@@ -103,6 +103,12 @@
   </si>
   <si>
     <t>Check-Klasse programmiert, Verification von einigen Methoden und programmierten Seiten, Flipchart und Burndownchart aktualisiert, Datenbank optimiert, Programmierbeihilfe</t>
+  </si>
+  <si>
+    <t>10.12.2019</t>
+  </si>
+  <si>
+    <t>Sprintplanung beendet(Akzeptanzkriterien, Flip Chart, Story Points,…), Start des 2. Sprints, Programmierarbeiten an Story(Admin-Kursverwaltung)</t>
   </si>
 </sst>
 </file>
@@ -297,6 +303,18 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -320,18 +338,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -732,7 +738,7 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -745,12 +751,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="8"/>
@@ -787,35 +793,35 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="30" t="s">
+      <c r="B5" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="34" t="s">
+      <c r="D5" s="34"/>
+      <c r="E5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="38" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="8"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -867,12 +873,12 @@
         <v>5.555555555555558E-2</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.45">
       <c r="A9" s="22" t="s">
@@ -942,15 +948,25 @@
       </c>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="26"/>
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="24">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E12" s="26" t="s">
+        <v>25</v>
+      </c>
       <c r="F12" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22569444444444436</v>
       </c>
       <c r="G12" s="11"/>
     </row>
@@ -1257,109 +1273,109 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
       <c r="F38" s="21">
         <f>SUM(F7:F37)</f>
-        <v>0.80208333333333326</v>
+        <v>1.0277777777777777</v>
       </c>
       <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A41" s="38"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A43" s="36"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="36"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
       <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A45" s="36"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
       <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A46" s="36"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
       <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A47" s="36"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
       <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A48" s="36"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
       <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
@@ -1382,6 +1398,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="A46:F46"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="A48:F48"/>
@@ -1391,15 +1416,6 @@
     <mergeCell ref="A43:F43"/>
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Gabric.xlsx
+++ b/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Gabric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josip\Documents\5AHWII\SWP\CCC_Projekt\Ferienspass\Taetigkeitsprotokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA6341E-5934-48EE-A027-B2BFA8190C93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0AFF67-D41C-4804-926B-8B9C0FF7F90B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Datum</t>
   </si>
@@ -102,13 +102,25 @@
     <t>03.12.2019</t>
   </si>
   <si>
-    <t>Check-Klasse programmiert, Verification von einigen Methoden und programmierten Seiten, Flipchart und Burndownchart aktualisiert, Datenbank optimiert, Programmierbeihilfe</t>
-  </si>
-  <si>
     <t>10.12.2019</t>
   </si>
   <si>
     <t>Sprintplanung beendet(Akzeptanzkriterien, Flip Chart, Story Points,…), Start des 2. Sprints, Programmierarbeiten an Story(Admin-Kursverwaltung)</t>
+  </si>
+  <si>
+    <t>17.12.2019</t>
+  </si>
+  <si>
+    <t>Programmieren an Story Kursauflösung bzw. Löschen und Programmierbeihilfe, Testung von Seiten</t>
+  </si>
+  <si>
+    <t>07.01.2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Story Kursauflösung beendet, Für Sprintfertigstellung gesorgt (Protokolle auf IST-Stand, Burndownchart etc.) </t>
+  </si>
+  <si>
+    <t>Check-Klasse programmiert, Verification von einigen Methoden und programmierten Seiten, Flipchart und Burndownchart aktualisiert, Datenbank optimiert(Probleme mit einigen Tabellen und Relationen), Programmierbeihilfe</t>
   </si>
 </sst>
 </file>
@@ -926,7 +938,7 @@
       <c r="G10" s="11"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.45">
       <c r="A11" s="22" t="s">
         <v>15</v>
       </c>
@@ -940,7 +952,7 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F11" s="25">
         <f t="shared" si="0"/>
@@ -953,7 +965,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="24">
         <v>0.32291666666666669</v>
@@ -962,35 +974,55 @@
         <v>0.54861111111111105</v>
       </c>
       <c r="E12" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="25">
+        <f t="shared" si="0"/>
+        <v>0.22569444444444436</v>
+      </c>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.45">
+      <c r="A13" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="25">
+      <c r="C13" s="24">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D13" s="24">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E13" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="25">
         <f t="shared" si="0"/>
         <v>0.22569444444444436</v>
       </c>
-      <c r="G12" s="11"/>
-    </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="26"/>
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.45">
+      <c r="A14" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="24">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D14" s="24">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>28</v>
+      </c>
       <c r="F14" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22569444444444436</v>
       </c>
       <c r="G14" s="11"/>
     </row>
@@ -1282,7 +1314,7 @@
       <c r="E38" s="32"/>
       <c r="F38" s="21">
         <f>SUM(F7:F37)</f>
-        <v>1.0277777777777777</v>
+        <v>1.4791666666666665</v>
       </c>
       <c r="G38" s="8"/>
     </row>

--- a/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Gabric.xlsx
+++ b/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Gabric.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josip\Documents\5AHWII\SWP\CCC_Projekt\Ferienspass\Taetigkeitsprotokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0AFF67-D41C-4804-926B-8B9C0FF7F90B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573F56A9-A85C-4160-8897-F386D94A1006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
   <si>
     <t>Datum</t>
   </si>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>Check-Klasse programmiert, Verification von einigen Methoden und programmierten Seiten, Flipchart und Burndownchart aktualisiert, Datenbank optimiert(Probleme mit einigen Tabellen und Relationen), Programmierbeihilfe</t>
+  </si>
+  <si>
+    <t>14.01.2020</t>
+  </si>
+  <si>
+    <t>Sprintplanung (Akzeptanzkriterien, Flip Chart, Story Points,…), Start des 3. Sprints, Programmierarbeiten an Story</t>
+  </si>
+  <si>
+    <t>15.01.2020</t>
+  </si>
+  <si>
+    <t>Programmieren an Story - Admin User anzeigen, bearbeiten</t>
   </si>
 </sst>
 </file>
@@ -750,7 +762,7 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1026,27 +1038,47 @@
       </c>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="26"/>
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.45">
+      <c r="A15" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="24">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D15" s="24">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>31</v>
+      </c>
       <c r="F15" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22569444444444436</v>
       </c>
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="27"/>
+      <c r="A16" s="22">
+        <v>43845</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="24">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="D16" s="24">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>33</v>
+      </c>
       <c r="F16" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444531E-2</v>
       </c>
       <c r="G16" s="11"/>
     </row>
@@ -1314,7 +1346,7 @@
       <c r="E38" s="32"/>
       <c r="F38" s="21">
         <f>SUM(F7:F37)</f>
-        <v>1.4791666666666665</v>
+        <v>1.7743055555555554</v>
       </c>
       <c r="G38" s="8"/>
     </row>

--- a/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Gabric.xlsx
+++ b/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Gabric.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josip\Documents\5AHWII\SWP\CCC_Projekt\Ferienspass\Taetigkeitsprotokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573F56A9-A85C-4160-8897-F386D94A1006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D80727-9CF5-4FC7-9172-B7B08119CA74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>Datum</t>
   </si>
@@ -133,6 +135,12 @@
   </si>
   <si>
     <t>Programmieren an Story - Admin User anzeigen, bearbeiten</t>
+  </si>
+  <si>
+    <t>21.01.2020</t>
+  </si>
+  <si>
+    <t>28.01.2020</t>
   </si>
 </sst>
 </file>
@@ -761,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -1083,26 +1091,46 @@
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
+      <c r="A17" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="24">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D17" s="26">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="F17" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22569444444444436</v>
       </c>
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="27"/>
+      <c r="A18" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="24">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D18" s="24">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E18" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="F18" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22569444444444436</v>
       </c>
       <c r="G18" s="11"/>
     </row>
@@ -1346,7 +1374,7 @@
       <c r="E38" s="32"/>
       <c r="F38" s="21">
         <f>SUM(F7:F37)</f>
-        <v>1.7743055555555554</v>
+        <v>2.2256944444444442</v>
       </c>
       <c r="G38" s="8"/>
     </row>

--- a/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Gabric.xlsx
+++ b/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Gabric.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josip\Documents\5AHWII\SWP\CCC_Projekt\Ferienspass\Taetigkeitsprotokolle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\5AHWII\SWP\CCC_Projekt\Ferienspass\Taetigkeitsprotokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D80727-9CF5-4FC7-9172-B7B08119CA74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275" tabRatio="882"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="Pause">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>Datum</t>
   </si>
@@ -141,12 +140,18 @@
   </si>
   <si>
     <t>28.01.2020</t>
+  </si>
+  <si>
+    <t>04.02.2020</t>
+  </si>
+  <si>
+    <t>Sprint Review; Story - Admin User anzeigen, bearbeiten noch Details programmiert bzw. geändert</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="[$-407]ddd"/>
@@ -335,6 +340,30 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -346,30 +375,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,23 +527,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -574,23 +562,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -766,34 +737,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.1328125" customWidth="1"/>
-    <col min="2" max="2" width="14.73046875" customWidth="1"/>
-    <col min="3" max="4" width="8.73046875" customWidth="1"/>
-    <col min="5" max="5" width="64.3984375" customWidth="1"/>
-    <col min="6" max="6" width="13.1328125" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="64.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -802,7 +773,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:13" s="4" customFormat="1" ht="22.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>9</v>
       </c>
@@ -815,7 +786,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:13" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:13" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="18"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -824,42 +795,42 @@
       <c r="F4" s="18"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A5" s="38" t="s">
+    <row r="5" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="34" t="s">
+      <c r="B5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="38" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="34" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
+    <row r="6" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
       <c r="G6" s="8"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>43775</v>
       </c>
@@ -884,7 +855,7 @@
       <c r="I7" s="2"/>
       <c r="J7" s="3"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>15</v>
       </c>
@@ -905,14 +876,14 @@
         <v>5.555555555555558E-2</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-    </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.45">
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>15</v>
       </c>
@@ -935,7 +906,7 @@
       <c r="G9" s="11"/>
       <c r="J9" s="3"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>15</v>
       </c>
@@ -958,7 +929,7 @@
       <c r="G10" s="11"/>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="57" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>15</v>
       </c>
@@ -980,7 +951,7 @@
       </c>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="40.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>15</v>
       </c>
@@ -1002,7 +973,7 @@
       </c>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>15</v>
       </c>
@@ -1024,7 +995,7 @@
       </c>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>15</v>
       </c>
@@ -1046,7 +1017,7 @@
       </c>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="27" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>15</v>
       </c>
@@ -1068,7 +1039,7 @@
       </c>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="22">
         <v>43845</v>
       </c>
@@ -1090,7 +1061,7 @@
       </c>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>15</v>
       </c>
@@ -1112,7 +1083,7 @@
       </c>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>15</v>
       </c>
@@ -1134,19 +1105,29 @@
       </c>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="27"/>
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="24">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D19" s="24">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>37</v>
+      </c>
       <c r="F19" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22569444444444436</v>
       </c>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
       <c r="B20" s="23"/>
       <c r="C20" s="24"/>
@@ -1158,7 +1139,7 @@
       </c>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
       <c r="C21" s="24"/>
@@ -1170,7 +1151,7 @@
       </c>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="26"/>
       <c r="B22" s="26"/>
       <c r="C22" s="24"/>
@@ -1182,7 +1163,7 @@
       </c>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="26"/>
       <c r="B23" s="26"/>
       <c r="C23" s="24"/>
@@ -1194,7 +1175,7 @@
       </c>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="26"/>
       <c r="C24" s="24"/>
@@ -1206,7 +1187,7 @@
       </c>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="26"/>
       <c r="B25" s="26"/>
       <c r="C25" s="24"/>
@@ -1218,7 +1199,7 @@
       </c>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="26"/>
       <c r="B26" s="26"/>
       <c r="C26" s="24"/>
@@ -1230,7 +1211,7 @@
       </c>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="26"/>
       <c r="B27" s="26"/>
       <c r="C27" s="24"/>
@@ -1242,7 +1223,7 @@
       </c>
       <c r="G27" s="11"/>
     </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="26"/>
       <c r="B28" s="26"/>
       <c r="C28" s="24"/>
@@ -1254,7 +1235,7 @@
       </c>
       <c r="G28" s="11"/>
     </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="26"/>
       <c r="C29" s="24"/>
@@ -1266,7 +1247,7 @@
       </c>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
       <c r="B30" s="26"/>
       <c r="C30" s="24"/>
@@ -1278,7 +1259,7 @@
       </c>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="26"/>
       <c r="B31" s="26"/>
       <c r="C31" s="24"/>
@@ -1290,7 +1271,7 @@
       </c>
       <c r="G31" s="11"/>
     </row>
-    <row r="32" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="26"/>
       <c r="B32" s="26"/>
       <c r="C32" s="24"/>
@@ -1302,7 +1283,7 @@
       </c>
       <c r="G32" s="11"/>
     </row>
-    <row r="33" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="26"/>
       <c r="B33" s="26"/>
       <c r="C33" s="24"/>
@@ -1314,7 +1295,7 @@
       </c>
       <c r="G33" s="11"/>
     </row>
-    <row r="34" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="26" t="s">
         <v>11</v>
@@ -1328,7 +1309,7 @@
       </c>
       <c r="G34" s="11"/>
     </row>
-    <row r="35" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="26"/>
       <c r="B35" s="26"/>
       <c r="C35" s="24"/>
@@ -1340,7 +1321,7 @@
       </c>
       <c r="G35" s="11"/>
     </row>
-    <row r="36" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="26"/>
       <c r="C36" s="24"/>
@@ -1352,7 +1333,7 @@
       </c>
       <c r="G36" s="11"/>
     </row>
-    <row r="37" spans="1:7" s="1" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
       <c r="B37" s="26"/>
       <c r="C37" s="24"/>
@@ -1364,113 +1345,113 @@
       </c>
       <c r="G37" s="11"/>
     </row>
-    <row r="38" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="32" t="s">
+    <row r="38" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
       <c r="F38" s="21">
         <f>SUM(F7:F37)</f>
-        <v>2.2256944444444442</v>
+        <v>2.4513888888888884</v>
       </c>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
+    <row r="39" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
       <c r="G39" s="8"/>
     </row>
-    <row r="40" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A40" s="33" t="s">
+    <row r="40" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
+    <row r="41" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
+    <row r="42" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
+    <row r="43" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
       <c r="G43" s="8"/>
     </row>
-    <row r="44" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
+    <row r="44" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
       <c r="G44" s="8"/>
     </row>
-    <row r="45" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
+    <row r="45" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
       <c r="G45" s="8"/>
     </row>
-    <row r="46" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
+    <row r="46" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
       <c r="G46" s="8"/>
     </row>
-    <row r="47" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
+    <row r="47" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
       <c r="G47" s="8"/>
     </row>
-    <row r="48" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
+    <row r="48" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
       <c r="G48" s="8"/>
     </row>
-    <row r="49" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -1479,7 +1460,7 @@
       <c r="F49" s="12"/>
       <c r="G49" s="12"/>
     </row>
-    <row r="50" spans="1:7" ht="13.15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -1490,6 +1471,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A45:F45"/>
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="C5:D5"/>
@@ -1499,15 +1489,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A45:F45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Gabric.xlsx
+++ b/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Gabric.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>Datum</t>
   </si>
@@ -146,6 +146,12 @@
   </si>
   <si>
     <t>Sprint Review; Story - Admin User anzeigen, bearbeiten noch Details programmiert bzw. geändert</t>
+  </si>
+  <si>
+    <t>11.02.2020</t>
+  </si>
+  <si>
+    <t>EditUser weiterprogrammiert --&gt; kleinere Fehler vorhanden</t>
   </si>
 </sst>
 </file>
@@ -340,6 +346,18 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -363,18 +381,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -741,7 +747,7 @@
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -754,12 +760,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="8"/>
@@ -796,35 +802,35 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="30" t="s">
+      <c r="B5" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="34" t="s">
+      <c r="D5" s="34"/>
+      <c r="E5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="F5" s="38" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="8"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -876,12 +882,12 @@
         <v>5.555555555555558E-2</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -1128,14 +1134,24 @@
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="27"/>
+      <c r="A20" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="24">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>39</v>
+      </c>
       <c r="F20" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22569444444444436</v>
       </c>
       <c r="G20" s="11"/>
     </row>
@@ -1346,109 +1362,109 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
       <c r="F38" s="21">
         <f>SUM(F7:F37)</f>
-        <v>2.4513888888888884</v>
+        <v>2.6770833333333326</v>
       </c>
       <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="37"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
+      <c r="A41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
+      <c r="A42" s="31"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="36"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="36"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
       <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="36"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
       <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="36"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
       <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="36"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
       <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="36"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
       <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1471,6 +1487,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="A46:F46"/>
     <mergeCell ref="A47:F47"/>
     <mergeCell ref="A48:F48"/>
@@ -1480,15 +1505,6 @@
     <mergeCell ref="A43:F43"/>
     <mergeCell ref="A44:F44"/>
     <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Gabric.xlsx
+++ b/Taetigkeitsprotokolle/Taetigkeitsprotokoll_Gabric.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20354"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\5AHWII\SWP\CCC_Projekt\Ferienspass\Taetigkeitsprotokolle\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE0D977-F46A-4E3E-BFD5-E4DF05C21334}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275" tabRatio="882"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="13275" tabRatio="882" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -17,22 +18,12 @@
   <definedNames>
     <definedName name="Pause">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>Datum</t>
   </si>
@@ -152,12 +143,18 @@
   </si>
   <si>
     <t>EditUser weiterprogrammiert --&gt; kleinere Fehler vorhanden</t>
+  </si>
+  <si>
+    <t>25.02.2020</t>
+  </si>
+  <si>
+    <t>Programmieren an Story</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="[$-407]ddd"/>
@@ -346,6 +343,30 @@
     <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -357,30 +378,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,6 +530,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -568,6 +582,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -743,11 +774,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -760,12 +791,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="4" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="8"/>
@@ -802,35 +833,35 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="34" t="s">
+      <c r="B5" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="38" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="34" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="4" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="20" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="39"/>
-      <c r="F6" s="39"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
       <c r="G6" s="8"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -882,12 +913,12 @@
         <v>5.555555555555558E-2</v>
       </c>
       <c r="G8" s="11"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
     </row>
     <row r="9" spans="1:13" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -1156,14 +1187,24 @@
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
+      <c r="A21" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="24">
+        <v>0.32291666666666669</v>
+      </c>
+      <c r="D21" s="26">
+        <v>0.54861111111111105</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="F21" s="25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.22569444444444436</v>
       </c>
       <c r="G21" s="11"/>
     </row>
@@ -1362,109 +1403,109 @@
       <c r="G37" s="11"/>
     </row>
     <row r="38" spans="1:7" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="32"/>
-      <c r="E38" s="32"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
       <c r="F38" s="21">
         <f>SUM(F7:F37)</f>
-        <v>2.6770833333333326</v>
+        <v>2.9027777777777768</v>
       </c>
       <c r="G38" s="8"/>
     </row>
     <row r="39" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
       <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="33" t="s">
+      <c r="A40" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="33"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="30"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="30"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
       <c r="G41" s="8"/>
     </row>
     <row r="42" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
       <c r="G42" s="8"/>
     </row>
     <row r="43" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="36"/>
       <c r="G43" s="8"/>
     </row>
     <row r="44" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
       <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
       <c r="G45" s="8"/>
     </row>
     <row r="46" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
       <c r="G46" s="8"/>
     </row>
     <row r="47" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
       <c r="G47" s="8"/>
     </row>
     <row r="48" spans="1:7" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
       <c r="G48" s="8"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -1487,6 +1528,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A45:F45"/>
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="C5:D5"/>
@@ -1496,15 +1546,6 @@
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A45:F45"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
